--- a/documentation/bom/RP2040-VCO-bom.xlsx
+++ b/documentation/bom/RP2040-VCO-bom.xlsx
@@ -47,7 +47,7 @@
     <t>Unpolarized capacitor, small symbol</t>
   </si>
   <si>
-    <t>C11</t>
+    <t>C14</t>
   </si>
   <si>
     <t>100pF</t>
@@ -62,7 +62,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>C5 C13 C14 C15 C16</t>
+    <t>C1 C2 C3 C8 C9</t>
   </si>
   <si>
     <t>10nF</t>
@@ -74,7 +74,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>C1 C2 C6 C7 C8</t>
+    <t>C4 C5 C7 C11 C16</t>
   </si>
   <si>
     <t>100nF</t>
@@ -83,7 +83,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>C9</t>
+    <t>C13</t>
   </si>
   <si>
     <t>1uF</t>
@@ -98,19 +98,19 @@
     <t>6</t>
   </si>
   <si>
-    <t>C10</t>
+    <t>C10 C15</t>
   </si>
   <si>
     <t>10uF</t>
   </si>
   <si>
+    <t>CP_Elec_4x5.4</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>C3 C4</t>
-  </si>
-  <si>
-    <t>CP_Elec_4x5.4</t>
+    <t>C6</t>
   </si>
   <si>
     <t>8</t>
@@ -146,61 +146,76 @@
     <t>Generic connector, single row, 01x06, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>Conn_01x06_Female</t>
+  </si>
+  <si>
+    <t>PinSocket_1x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>Conn_01x06_Male</t>
+  </si>
+  <si>
+    <t>PinHeader_1x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x08, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
     <t>J4</t>
   </si>
   <si>
-    <t>Conn_01x06_Female</t>
-  </si>
-  <si>
-    <t>PinSocket_1x06_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>Conn_01x06_Male</t>
-  </si>
-  <si>
-    <t>PinHeader_1x06_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x08, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+    <t>Conn_01x08_Female</t>
+  </si>
+  <si>
+    <t>PinSocket_1x08_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>J5</t>
   </si>
   <si>
-    <t>Conn_01x08_Female</t>
-  </si>
-  <si>
-    <t>PinSocket_1x08_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>J7</t>
-  </si>
-  <si>
     <t>Conn_01x08_Male</t>
   </si>
   <si>
-    <t>PinHeader_1x08_P2.54mm_Horizontal</t>
+    <t>PinHeader_1x08_P2.54mm_Vertical</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
+    <t>Audio Jack, 2 Poles (Mono / TS), Switched Pole (Normalling)</t>
+  </si>
+  <si>
+    <t>J1 J6 J7</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>Thonkiconn</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>Generic connector, single row, 01x10, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
-    <t>J2</t>
+    <t>J8</t>
   </si>
   <si>
     <t>Power Input</t>
@@ -209,100 +224,85 @@
     <t>IDC-Header_2x05_P2.54mm_Vertical</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Audio Jack, 2 Poles (Mono / TS), Switched Pole (Normalling)</t>
-  </si>
-  <si>
-    <t>J1 J3 J8</t>
-  </si>
-  <si>
-    <t>V/oct</t>
-  </si>
-  <si>
-    <t>Thonkiconn</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
     <t>Resistor</t>
   </si>
   <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>330R</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>R2 R3 R5 R6</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>2.2k</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>6.8k</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>R8 R10 R12 R13 R14</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>22k</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>R16</t>
   </si>
   <si>
-    <t>330R</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>R1 R2 R10 R12</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>18</t>
+    <t>33k</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>R9</t>
   </si>
   <si>
-    <t>2.2k</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>6.8k</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>R5 R6 R7 R8 R11</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>22k</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>33k</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
     <t>220k</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>R4</t>
+    <t>R11</t>
   </si>
   <si>
     <t>330k</t>
@@ -314,24 +314,24 @@
     <t>MEC Low Profile single pole normally-open illuminated tactile switch</t>
   </si>
   <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SW_MEC_LOW_PROF_LED</t>
+  </si>
+  <si>
+    <t>PB01-109TL</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Switch, single pole double throw</t>
+  </si>
+  <si>
     <t>SW2</t>
   </si>
   <si>
-    <t>SW_MEC_LOW_PROF_LED</t>
-  </si>
-  <si>
-    <t>PB01-109TL</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Switch, single pole double throw</t>
-  </si>
-  <si>
-    <t>SW1</t>
-  </si>
-  <si>
     <t>SW_SPDT</t>
   </si>
   <si>
@@ -404,13 +404,13 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-02-18_13-27-38</t>
+    <t>2023-04-07_07-33-51</t>
   </si>
   <si>
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>6.0.10+dfsg-1~bpo11+1</t>
+    <t>7.0.1.1-36-gbcf78dbe24-dirty-deb11</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -1126,8 +1126,8 @@
       <c r="A14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>8</v>
+      <c r="B14" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>26</v>
@@ -1136,10 +1136,10 @@
         <v>27</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>12</v>
@@ -1147,22 +1147,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>12</v>
@@ -1214,7 +1214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30.0" customHeight="1">
+    <row r="18" spans="1:7" ht="30" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>40</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30.0" customHeight="1">
+    <row r="19" spans="1:7" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30.0" customHeight="1">
+    <row r="20" spans="1:7" ht="30" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30.0" customHeight="1">
+    <row r="21" spans="1:7" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>54</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30.0" customHeight="1">
+    <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
         <v>58</v>
       </c>
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>63</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>67</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>12</v>
@@ -1559,7 +1559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30.0" customHeight="1">
+    <row r="33" spans="1:7" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>96</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30.0" customHeight="1">
+    <row r="37" spans="1:7" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>116</v>
       </c>

--- a/documentation/bom/RP2040-VCO-bom.xlsx
+++ b/documentation/bom/RP2040-VCO-bom.xlsx
@@ -404,7 +404,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-04-07_07-33-51</t>
+    <t>2023-04-07_07-39-14</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/documentation/bom/RP2040-VCO-bom.xlsx
+++ b/documentation/bom/RP2040-VCO-bom.xlsx
@@ -269,7 +269,7 @@
     <t>20</t>
   </si>
   <si>
-    <t>R8 R10 R12 R13 R14</t>
+    <t>R8 R10 R12 R13 R14 R17</t>
   </si>
   <si>
     <t>21</t>
@@ -404,7 +404,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-04-07_07-39-14</t>
+    <t>2023-04-09_19-20-43</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -419,7 +419,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>52 (38 SMD/ 14 THT)</t>
+    <t>53 (39 SMD/ 14 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -896,7 +896,7 @@
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
     <col min="5" max="5" width="48.7109375" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" customWidth="1"/>
@@ -981,7 +981,7 @@
         <v>136</v>
       </c>
       <c r="D6" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1461,7 +1461,7 @@
         <v>72</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>12</v>

--- a/documentation/bom/RP2040-VCO-bom.xlsx
+++ b/documentation/bom/RP2040-VCO-bom.xlsx
@@ -404,7 +404,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-04-09_19-20-43</t>
+    <t>2023-04-09_19-27-34</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/documentation/bom/RP2040-VCO-bom.xlsx
+++ b/documentation/bom/RP2040-VCO-bom.xlsx
@@ -404,7 +404,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-04-09_19-27-34</t>
+    <t>2023-04-09_19-39-21</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/documentation/bom/RP2040-VCO-bom.xlsx
+++ b/documentation/bom/RP2040-VCO-bom.xlsx
@@ -404,13 +404,13 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-04-09_19-39-21</t>
+    <t>2023-06-10_10-54-29</t>
   </si>
   <si>
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>7.0.1.1-36-gbcf78dbe24-dirty-deb11</t>
+    <t>7.0.5.1-1-g8f565ef7f0-dirty-deb11</t>
   </si>
   <si>
     <t>Component Groups:</t>

--- a/documentation/bom/RP2040-VCO-bom.xlsx
+++ b/documentation/bom/RP2040-VCO-bom.xlsx
@@ -404,7 +404,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-06-10_10-54-29</t>
+    <t>2023-06-10_13-58-20</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/documentation/bom/RP2040-VCO-bom.xlsx
+++ b/documentation/bom/RP2040-VCO-bom.xlsx
@@ -404,7 +404,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-06-10_13-58-20</t>
+    <t>2023-06-10_14-17-27</t>
   </si>
   <si>
     <t>KiCad Version:</t>
